--- a/ET-EUI/Excel/StartSceneConfig.xlsx
+++ b/ET-EUI/Excel/StartSceneConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\ET6\ET-EUI\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Test\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2456A0E-5B6F-42D3-99DF-EB749F69D17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4380E9B5-5F13-486B-BDEA-C4DCEAF0A851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="9165" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -94,6 +94,9 @@
   <si>
     <t>Account</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginCenter</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H12"/>
+  <dimension ref="C3:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -692,6 +695,23 @@
       </c>
       <c r="H12" s="3">
         <v>10005</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ET-EUI/Excel/StartSceneConfig.xlsx
+++ b/ET-EUI/Excel/StartSceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Test\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4380E9B5-5F13-486B-BDEA-C4DCEAF0A851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C05180-D506-4258-A0F1-4BB1B7ED19F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="6495" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>LoginCenter</t>
+  </si>
+  <si>
+    <t>UnitCache</t>
+  </si>
+  <si>
+    <t>UnitCache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -487,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H13"/>
+  <dimension ref="C3:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -712,6 +727,40 @@
       </c>
       <c r="G13" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ET-EUI/Excel/StartSceneConfig.xlsx
+++ b/ET-EUI/Excel/StartSceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Test\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C05180-D506-4258-A0F1-4BB1B7ED19F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F989FDF1-2947-4656-A855-56457D708CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="6495" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="4050" windowWidth="21105" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>Game</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatInfo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H15"/>
+  <dimension ref="C3:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -761,6 +769,40 @@
       </c>
       <c r="G15" s="6" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
